--- a/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2350" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="467">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -481,7 +481,7 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>registered | preliminary | final | amended +</t>
+    <t>preliminary | final | amended +</t>
   </si>
   <si>
     <t>The status of the result value.</t>
@@ -496,10 +496,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/observationstatus-result-available-1</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -700,7 +697,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-mhr-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -845,7 +842,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/practitionerrole-ident-1|http://ns.electronichealth.net.au/ci/fhir/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1671,7 +1668,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="60.515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="78.2890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -3396,11 +3393,9 @@
       <c r="W15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="X15" s="2"/>
+      <c r="Y15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3433,19 +3428,19 @@
         <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3453,7 +3448,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3476,19 +3471,19 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
@@ -3498,7 +3493,7 @@
         <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>45</v>
@@ -3516,11 +3511,11 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3537,7 +3532,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3561,10 +3556,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3572,11 +3567,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3595,19 +3590,19 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3632,14 +3627,14 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Y17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3656,7 +3651,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>55</v>
@@ -3671,27 +3666,27 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3717,10 +3712,10 @@
         <v>57</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3771,7 +3766,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3795,7 +3790,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3806,7 +3801,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3832,10 +3827,10 @@
         <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>116</v>
@@ -3879,7 +3874,7 @@
         <v>103</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
@@ -3888,7 +3883,7 @@
         <v>104</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3912,7 +3907,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3923,7 +3918,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3946,19 +3941,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3995,7 +3990,7 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
@@ -4005,7 +4000,7 @@
         <v>104</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -4026,10 +4021,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4040,10 +4035,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>45</v>
@@ -4065,19 +4060,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4106,7 +4101,7 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4124,7 +4119,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4145,10 +4140,10 @@
         <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>45</v>
@@ -4159,7 +4154,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4185,16 +4180,16 @@
         <v>57</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4243,7 +4238,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4264,10 +4259,10 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>45</v>
@@ -4278,7 +4273,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4301,19 +4296,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4362,7 +4357,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4377,19 +4372,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4397,7 +4392,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4420,16 +4415,16 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4479,7 +4474,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4500,13 +4495,13 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4514,11 +4509,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4537,19 +4532,19 @@
         <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4598,7 +4593,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4613,19 +4608,19 @@
         <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AK25" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4633,11 +4628,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4656,19 +4651,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4717,7 +4712,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4732,19 +4727,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4752,7 +4747,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4775,16 +4770,16 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4834,7 +4829,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4855,13 +4850,13 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4869,7 +4864,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4892,17 +4887,17 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4951,7 +4946,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4966,19 +4961,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4986,7 +4981,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5009,19 +5004,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5070,7 +5065,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5079,7 +5074,7 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
@@ -5088,24 +5083,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5128,19 +5123,19 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
@@ -5165,14 +5160,14 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5189,7 +5184,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5198,7 +5193,7 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5213,7 +5208,7 @@
         <v>98</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
@@ -5224,11 +5219,11 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5247,19 +5242,19 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5284,14 +5279,14 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Y31" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5308,7 +5303,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5326,24 +5321,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5366,19 +5361,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5427,7 +5422,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5448,10 +5443,10 @@
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5462,7 +5457,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5485,16 +5480,16 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5520,14 +5515,14 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>317</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5544,7 +5539,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5562,24 +5557,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>321</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5602,19 +5597,19 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5639,14 +5634,14 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Y34" t="s" s="2">
-        <v>328</v>
-      </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5663,7 +5658,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5684,10 +5679,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5698,7 +5693,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5721,16 +5716,16 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5780,7 +5775,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5798,24 +5793,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO35" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>339</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5838,16 +5833,16 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5897,7 +5892,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5915,24 +5910,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO36" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>348</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5955,19 +5950,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -6016,7 +6011,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6028,19 +6023,19 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6051,7 +6046,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6077,10 +6072,10 @@
         <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6131,7 +6126,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6155,7 +6150,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6166,7 +6161,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6192,10 +6187,10 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>116</v>
@@ -6248,7 +6243,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6272,7 +6267,7 @@
         <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6283,11 +6278,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6309,10 +6304,10 @@
         <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>116</v>
@@ -6367,7 +6362,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6402,7 +6397,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6425,13 +6420,13 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6482,7 +6477,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6491,7 +6486,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6503,10 +6498,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6517,7 +6512,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6540,13 +6535,13 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6597,7 +6592,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6606,7 +6601,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6618,10 +6613,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6632,7 +6627,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6655,19 +6650,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6695,11 +6690,11 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>382</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6716,7 +6711,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6734,13 +6729,13 @@
         <v>45</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AM43" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6751,7 +6746,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6774,19 +6769,19 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6811,14 +6806,14 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6835,7 +6830,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6853,13 +6848,13 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AL44" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AM44" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6870,7 +6865,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6893,17 +6888,17 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -6952,7 +6947,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6976,7 +6971,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6987,7 +6982,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7013,10 +7008,10 @@
         <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7067,7 +7062,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7088,10 +7083,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7102,7 +7097,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7125,16 +7120,16 @@
         <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7184,7 +7179,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7205,10 +7200,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM47" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7219,7 +7214,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7245,10 +7240,10 @@
         <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7299,7 +7294,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7323,7 +7318,7 @@
         <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7334,7 +7329,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7360,10 +7355,10 @@
         <v>100</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>116</v>
@@ -7407,7 +7402,7 @@
         <v>103</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>45</v>
@@ -7416,7 +7411,7 @@
         <v>104</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7440,7 +7435,7 @@
         <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7451,7 +7446,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7477,13 +7472,13 @@
         <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>414</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7533,7 +7528,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7542,7 +7537,7 @@
         <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7568,7 +7563,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7594,13 +7589,13 @@
         <v>69</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7626,31 +7621,31 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7685,7 +7680,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7711,13 +7706,13 @@
         <v>120</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7767,7 +7762,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7791,7 +7786,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7802,7 +7797,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7828,13 +7823,13 @@
         <v>57</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7884,7 +7879,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7919,7 +7914,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7942,16 +7937,16 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8001,7 +7996,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8022,10 +8017,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8036,7 +8031,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8059,19 +8054,19 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8120,7 +8115,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8141,10 +8136,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8155,7 +8150,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8181,10 +8176,10 @@
         <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8235,7 +8230,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8259,7 +8254,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8270,7 +8265,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8296,10 +8291,10 @@
         <v>100</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>116</v>
@@ -8352,7 +8347,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8376,7 +8371,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8387,11 +8382,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8413,10 +8408,10 @@
         <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>362</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>363</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>116</v>
@@ -8471,7 +8466,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8506,7 +8501,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8529,19 +8524,19 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M59" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="N59" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
@@ -8566,14 +8561,14 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X59" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X59" t="s" s="2">
+      <c r="Y59" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>178</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8590,7 +8585,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>55</v>
@@ -8608,16 +8603,16 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="AM59" t="s" s="2">
+      <c r="AN59" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -8625,7 +8620,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8648,19 +8643,19 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L60" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>458</v>
-      </c>
       <c r="N60" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8709,7 +8704,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8727,24 +8722,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>281</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8767,19 +8762,19 @@
         <v>45</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>463</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8804,14 +8799,14 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="X61" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="X61" t="s" s="2">
+      <c r="Y61" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
       </c>
@@ -8828,7 +8823,7 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
@@ -8837,7 +8832,7 @@
         <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8852,7 +8847,7 @@
         <v>98</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8863,11 +8858,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8886,19 +8881,19 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
@@ -8923,14 +8918,14 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>299</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8947,7 +8942,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8965,24 +8960,24 @@
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>303</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9008,16 +9003,16 @@
         <v>45</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L63" t="s" s="2">
-        <v>467</v>
-      </c>
       <c r="M63" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9066,7 +9061,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9087,10 +9082,10 @@
         <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>

--- a/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="472">
   <si>
     <t>Path</t>
   </si>
@@ -166,7 +166,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}inv-dh-obs-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-obs-02:If present, a performer shall at least have a reference or an identifier with at least a system and a value {performer.exists() implies (performer.reference.exists() or performer.identifier.where(system.count() + value.count() &gt;1).exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -456,7 +456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/imagingstudy-diag-1)
 </t>
   </si>
   <si>
@@ -476,6 +476,116 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.partOf.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.partOf.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.partOf.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Observation.partOf.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Observation.partOf.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Observation.partOf.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Observation.status</t>
@@ -533,14 +643,6 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="procedure"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
@@ -602,31 +704,7 @@
     <t>Observation.code.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.code.coding</t>
@@ -916,9 +994,6 @@
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
@@ -1313,78 +1388,13 @@
     <t>Observation.hasMember.reference</t>
   </si>
   <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
     <t>Observation.hasMember.type</t>
   </si>
   <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
     <t>Observation.hasMember.identifier</t>
   </si>
   <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
     <t>Observation.hasMember.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -1635,7 +1645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO63"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3212,7 +3222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>137</v>
       </c>
@@ -3228,7 +3238,7 @@
         <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>45</v>
@@ -3329,7 +3339,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>146</v>
       </c>
@@ -3339,22 +3349,22 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>147</v>
@@ -3362,12 +3372,8 @@
       <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>150</v>
-      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3391,11 +3397,13 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3413,10 +3421,10 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>55</v>
@@ -3425,44 +3433,44 @@
         <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>155</v>
+        <v>45</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>157</v>
+        <v>45</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>45</v>
@@ -3471,20 +3479,18 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>159</v>
+        <v>100</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>45</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>45</v>
@@ -3508,31 +3514,31 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>165</v>
+        <v>45</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3544,7 +3550,7 @@
         <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>45</v>
@@ -3556,22 +3562,22 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3581,7 +3587,7 @@
         <v>55</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>45</v>
@@ -3590,20 +3596,18 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>174</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3627,13 +3631,13 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3651,42 +3655,42 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>183</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3706,18 +3710,20 @@
         <v>45</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3742,13 +3748,13 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3766,7 +3772,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3778,7 +3784,7 @@
         <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>45</v>
@@ -3790,7 +3796,7 @@
         <v>45</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>45</v>
@@ -3801,18 +3807,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3821,19 +3827,19 @@
         <v>45</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3871,31 +3877,31 @@
         <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>45</v>
@@ -3907,7 +3913,7 @@
         <v>45</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>45</v>
@@ -3918,7 +3924,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3929,7 +3935,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>45</v>
@@ -3941,20 +3947,18 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3990,23 +3994,25 @@
         <v>45</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>45</v>
@@ -4021,10 +4027,10 @@
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>202</v>
+        <v>45</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>45</v>
@@ -4033,46 +4039,44 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>45</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4097,11 +4101,11 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4119,13 +4123,13 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>45</v>
@@ -4134,27 +4138,27 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4162,34 +4166,34 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -4214,13 +4218,13 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4238,13 +4242,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4259,13 +4263,13 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4273,11 +4277,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4296,19 +4300,19 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4333,13 +4337,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4357,10 +4361,10 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>55</v>
@@ -4372,27 +4376,27 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4403,7 +4407,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>45</v>
@@ -4412,20 +4416,18 @@
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4474,19 +4476,19 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>45</v>
@@ -4495,13 +4497,13 @@
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4509,18 +4511,18 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>232</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4529,23 +4531,21 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4581,68 +4581,68 @@
         <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>231</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>239</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>243</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>45</v>
@@ -4651,19 +4651,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4700,25 +4700,23 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4727,19 +4725,19 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
@@ -4747,9 +4745,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4770,18 +4770,20 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>256</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
       </c>
@@ -4805,13 +4807,11 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4829,13 +4829,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4850,21 +4850,21 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>260</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4875,10 +4875,10 @@
         <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>45</v>
@@ -4887,17 +4887,19 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>262</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="N28" t="s" s="2">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
@@ -4946,13 +4948,13 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -4961,19 +4963,19 @@
         <v>67</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4981,7 +4983,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4989,7 +4991,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>55</v>
@@ -5004,19 +5006,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5065,7 +5067,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5074,33 +5076,33 @@
         <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5111,7 +5113,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>45</v>
@@ -5120,23 +5122,21 @@
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5160,13 +5160,13 @@
         <v>45</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>45</v>
@@ -5184,16 +5184,16 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5205,13 +5205,13 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>98</v>
+        <v>214</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5219,18 +5219,18 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5239,22 +5239,22 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5279,13 +5279,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5303,13 +5303,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5318,62 +5318,62 @@
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>269</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>308</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5422,13 +5422,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5437,27 +5437,27 @@
         <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5471,25 +5471,25 @@
         <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J33" t="s" s="2">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5515,13 +5515,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>316</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5539,7 +5539,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5557,24 +5557,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>320</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5585,7 +5585,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>56</v>
@@ -5594,22 +5594,20 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>159</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5634,13 +5632,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>326</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>327</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5658,13 +5656,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5673,27 +5671,27 @@
         <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>329</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5707,27 +5705,29 @@
         <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>330</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5784,7 +5784,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5793,24 +5793,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>336</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>337</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>338</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5833,18 +5833,20 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>340</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5868,13 +5870,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5892,7 +5894,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5901,7 +5903,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5910,28 +5912,28 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>344</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>345</v>
+        <v>98</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5950,19 +5952,19 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>349</v>
+        <v>194</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5987,13 +5989,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6011,7 +6013,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6023,30 +6025,30 @@
         <v>45</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>354</v>
+        <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>356</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6057,7 +6059,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6069,16 +6071,20 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>185</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+        <v>331</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6126,19 +6132,19 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>187</v>
+        <v>328</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6147,10 +6153,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6159,23 +6165,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>45</v>
@@ -6184,16 +6190,16 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>116</v>
+        <v>339</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6219,13 +6225,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6243,77 +6249,77 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>193</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>116</v>
+        <v>349</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6338,13 +6344,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6362,19 +6368,19 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6383,10 +6389,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>98</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6397,7 +6403,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6420,15 +6426,17 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6477,7 +6485,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6486,7 +6494,7 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>67</v>
@@ -6495,24 +6503,24 @@
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6538,12 +6546,14 @@
         <v>365</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6592,7 +6602,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6601,7 +6611,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>368</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6610,24 +6620,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6638,7 +6648,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6650,19 +6660,19 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>159</v>
+        <v>374</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6687,55 +6697,55 @@
         <v>45</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6746,7 +6756,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6757,7 +6767,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6769,20 +6779,16 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>385</v>
+        <v>147</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>388</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6806,13 +6812,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>389</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>390</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6830,31 +6836,31 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>384</v>
+        <v>149</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>301</v>
+        <v>150</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6865,18 +6871,18 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6888,18 +6894,18 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>392</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>393</v>
+        <v>152</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6947,19 +6953,19 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>391</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6971,7 +6977,7 @@
         <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>396</v>
+        <v>150</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6982,39 +6988,43 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7062,19 +7072,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7083,10 +7093,10 @@
         <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>400</v>
+        <v>98</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7095,9 +7105,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7108,29 +7118,27 @@
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7179,16 +7187,16 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>67</v>
@@ -7200,10 +7208,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7214,7 +7222,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7237,13 +7245,13 @@
         <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>57</v>
+        <v>390</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>186</v>
+        <v>398</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7294,7 +7302,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>187</v>
+        <v>396</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7303,10 +7311,10 @@
         <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7315,10 +7323,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>188</v>
+        <v>399</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7329,18 +7337,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7352,18 +7360,20 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>190</v>
+        <v>401</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>191</v>
+        <v>402</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7387,55 +7397,55 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>192</v>
+        <v>45</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>193</v>
+        <v>400</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>188</v>
+        <v>326</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7446,7 +7456,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7454,10 +7464,10 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7466,21 +7476,23 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7504,13 +7516,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7528,16 +7540,16 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>415</v>
+        <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>67</v>
@@ -7546,13 +7558,13 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>98</v>
+        <v>326</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7583,21 +7595,21 @@
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>69</v>
+        <v>417</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M51" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7621,13 +7633,13 @@
         <v>45</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>420</v>
+        <v>45</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>421</v>
+        <v>45</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>45</v>
@@ -7645,7 +7657,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7669,7 +7681,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>98</v>
+        <v>421</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7680,7 +7692,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7700,20 +7712,18 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7762,7 +7772,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7783,10 +7793,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7795,9 +7805,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7808,10 +7818,10 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>45</v>
@@ -7820,16 +7830,16 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>57</v>
+        <v>427</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7879,13 +7889,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7900,10 +7910,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>98</v>
+        <v>432</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7914,7 +7924,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7925,7 +7935,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7934,20 +7944,18 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>435</v>
+        <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>436</v>
+        <v>147</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>438</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7996,19 +8004,19 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>434</v>
+        <v>149</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
@@ -8017,10 +8025,10 @@
         <v>45</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>439</v>
+        <v>150</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8031,18 +8039,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8051,23 +8059,21 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>349</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>441</v>
+        <v>152</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>442</v>
+        <v>153</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>444</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8103,19 +8109,19 @@
         <v>45</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>440</v>
+        <v>155</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8127,7 +8133,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8136,10 +8142,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>446</v>
+        <v>150</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8150,7 +8156,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8158,7 +8164,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>55</v>
@@ -8170,18 +8176,20 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8230,7 +8238,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8239,10 +8247,10 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>45</v>
@@ -8254,7 +8262,7 @@
         <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8265,18 +8273,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8285,19 +8293,19 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8323,13 +8331,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8347,19 +8355,19 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8371,7 +8379,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8382,43 +8390,41 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>361</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>362</v>
+        <v>172</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8466,19 +8472,19 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>363</v>
+        <v>174</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8490,7 +8496,7 @@
         <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8501,7 +8507,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8509,7 +8515,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>55</v>
@@ -8524,20 +8530,18 @@
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>451</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>452</v>
+        <v>178</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8561,13 +8565,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>176</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8585,10 +8589,10 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>450</v>
+        <v>180</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>55</v>
@@ -8603,16 +8607,16 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>45</v>
@@ -8620,7 +8624,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8631,7 +8635,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8643,20 +8647,18 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>271</v>
+        <v>440</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>273</v>
+        <v>442</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8704,13 +8706,13 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -8722,24 +8724,24 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>458</v>
+        <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>278</v>
+        <v>431</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>279</v>
+        <v>444</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8750,7 +8752,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8759,22 +8761,22 @@
         <v>45</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>159</v>
+        <v>374</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>285</v>
+        <v>449</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8799,13 +8801,13 @@
         <v>45</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>287</v>
+        <v>45</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>288</v>
+        <v>45</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>45</v>
@@ -8823,16 +8825,16 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>67</v>
@@ -8844,10 +8846,10 @@
         <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>98</v>
+        <v>450</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>290</v>
+        <v>451</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
@@ -8858,18 +8860,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>45</v>
@@ -8881,20 +8883,16 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8918,13 +8916,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>297</v>
+        <v>45</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8942,46 +8940,46 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>463</v>
+        <v>149</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>301</v>
+        <v>150</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9000,20 +8998,18 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>465</v>
+        <v>152</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>466</v>
+        <v>153</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>353</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9061,7 +9057,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>464</v>
+        <v>155</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9073,29 +9069,743 @@
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO63" t="s" s="2">
+      <c r="AJ65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO63">
+  <autoFilter ref="A1:AO69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9105,7 +9815,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="449">
   <si>
     <t>Path</t>
   </si>
@@ -699,77 +699,6 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>snomedImagingProcedure</t>
-  </si>
-  <si>
-    <t>Imaging Procedure (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
-  </si>
-  <si>
-    <t>Observation.code.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1645,7 +1574,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO69"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1655,7 +1584,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -4394,7 +4323,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>218</v>
       </c>
@@ -4404,31 +4333,35 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>57</v>
+        <v>219</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4476,7 +4409,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>149</v>
+        <v>218</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4488,22 +4421,22 @@
         <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4511,11 +4444,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4531,19 +4464,19 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>152</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>116</v>
+        <v>232</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4581,19 +4514,19 @@
         <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4605,7 +4538,7 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>45</v>
@@ -4614,13 +4547,13 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4628,18 +4561,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>235</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4651,19 +4584,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4700,23 +4633,25 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4725,43 +4660,41 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4770,19 +4703,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4807,11 +4740,13 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y27" t="s" s="2">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4829,13 +4764,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4844,19 +4779,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>252</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4864,7 +4799,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4887,20 +4822,18 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4948,7 +4881,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4969,13 +4902,13 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4983,7 +4916,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4991,10 +4924,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>56</v>
@@ -5006,19 +4939,17 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s" s="2">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -5067,13 +4998,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -5082,27 +5013,27 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5113,10 +5044,10 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5125,18 +5056,20 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5184,16 +5117,16 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5202,28 +5135,28 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>214</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>258</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5239,22 +5172,22 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5279,13 +5212,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5303,7 +5236,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5312,68 +5245,68 @@
         <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>267</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5398,13 +5331,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5422,13 +5355,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5437,27 +5370,27 @@
         <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>278</v>
+        <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5468,7 +5401,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5477,21 +5410,23 @@
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>281</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5539,13 +5474,13 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -5560,13 +5495,13 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>286</v>
+        <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5574,7 +5509,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5585,7 +5520,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>56</v>
@@ -5594,21 +5529,21 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5632,13 +5567,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>318</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5656,13 +5591,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5671,27 +5606,27 @@
         <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>295</v>
+        <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5711,22 +5646,22 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>297</v>
+        <v>194</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>325</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>326</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>301</v>
+        <v>327</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5751,13 +5686,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5775,7 +5710,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5784,7 +5719,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5793,24 +5728,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>304</v>
+        <v>330</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>306</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5833,20 +5768,18 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>194</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>308</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5870,13 +5803,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5894,7 +5827,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5903,7 +5836,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5912,35 +5845,35 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>337</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>98</v>
+        <v>338</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5952,20 +5885,18 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>194</v>
+        <v>342</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5989,13 +5920,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6013,13 +5944,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -6031,24 +5962,24 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>327</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6071,19 +6002,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6132,7 +6063,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6144,7 +6075,7 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6153,10 +6084,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6165,9 +6096,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6181,7 +6112,7 @@
         <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>45</v>
@@ -6190,17 +6121,15 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>337</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6225,13 +6154,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>341</v>
+        <v>45</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6249,7 +6178,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>149</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6261,44 +6190,44 @@
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>344</v>
+        <v>150</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>345</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6307,20 +6236,18 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>152</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
+        <v>153</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6344,13 +6271,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6368,19 +6295,19 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>346</v>
+        <v>155</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6389,10 +6316,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>354</v>
+        <v>150</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6403,41 +6330,43 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>356</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6485,42 +6414,42 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>360</v>
+        <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>362</v>
+        <v>98</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>363</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6543,17 +6472,15 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6602,7 +6529,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6611,7 +6538,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6620,19 +6547,19 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>369</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>372</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -6648,7 +6575,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6660,20 +6587,16 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="L43" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>378</v>
-      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6727,13 +6650,13 @@
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>379</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6742,10 +6665,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6756,7 +6679,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6779,16 +6702,20 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>147</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6812,13 +6739,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>382</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>383</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6836,7 +6763,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>149</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6848,19 +6775,19 @@
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6871,11 +6798,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6894,18 +6821,20 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>152</v>
+        <v>387</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>153</v>
+        <v>388</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>389</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6929,13 +6858,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>391</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>392</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6953,7 +6882,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>155</v>
+        <v>386</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6965,19 +6894,19 @@
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6988,42 +6917,40 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>100</v>
+        <v>394</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7072,19 +6999,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7096,7 +7023,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>98</v>
+        <v>398</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7107,7 +7034,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7130,13 +7057,13 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7187,7 +7114,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7196,7 +7123,7 @@
         <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>67</v>
@@ -7208,10 +7135,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7220,9 +7147,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7233,27 +7160,29 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7302,16 +7231,16 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>393</v>
+        <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>67</v>
@@ -7323,10 +7252,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7337,7 +7266,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7360,20 +7289,16 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>401</v>
+        <v>147</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7397,13 +7322,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7421,7 +7346,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>400</v>
+        <v>149</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7433,19 +7358,19 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7456,11 +7381,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7479,20 +7404,18 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>410</v>
+        <v>152</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>411</v>
+        <v>153</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7516,31 +7439,31 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>414</v>
+        <v>45</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>415</v>
+        <v>45</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>409</v>
+        <v>155</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7552,19 +7475,19 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>407</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>326</v>
+        <v>150</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7575,7 +7498,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7583,7 +7506,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>55</v>
@@ -7595,21 +7518,21 @@
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>417</v>
+        <v>57</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>418</v>
+        <v>157</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7657,7 +7580,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>416</v>
+        <v>160</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7666,7 +7589,7 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7681,7 +7604,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>421</v>
+        <v>98</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7692,7 +7615,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7712,18 +7635,20 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>423</v>
+        <v>163</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M52" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7748,13 +7673,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7772,7 +7697,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>422</v>
+        <v>169</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7793,10 +7718,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>425</v>
+        <v>98</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7805,9 +7730,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7818,10 +7743,10 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>45</v>
@@ -7830,16 +7755,16 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>427</v>
+        <v>120</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>428</v>
+        <v>171</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>429</v>
+        <v>172</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>430</v>
+        <v>173</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7889,13 +7814,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>426</v>
+        <v>174</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7910,10 +7835,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>431</v>
+        <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>432</v>
+        <v>175</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7924,7 +7849,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7944,18 +7869,20 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8004,7 +7931,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -8016,7 +7943,7 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
@@ -8028,7 +7955,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8039,11 +7966,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8059,19 +7986,19 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>100</v>
+        <v>417</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>152</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>153</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>116</v>
+        <v>420</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8109,19 +8036,19 @@
         <v>45</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>155</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8133,7 +8060,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8142,10 +8069,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>150</v>
+        <v>421</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8156,7 +8083,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8164,10 +8091,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8179,18 +8106,20 @@
         <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>57</v>
+        <v>351</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>157</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>158</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8238,16 +8167,16 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>160</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>67</v>
@@ -8259,10 +8188,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>427</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>98</v>
+        <v>428</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8273,7 +8202,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8293,20 +8222,18 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8331,13 +8258,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8355,7 +8282,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8367,7 +8294,7 @@
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8379,7 +8306,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8390,18 +8317,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8410,19 +8337,19 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8472,19 +8399,19 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8496,7 +8423,7 @@
         <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8507,41 +8434,43 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>177</v>
+        <v>363</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>178</v>
+        <v>364</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8589,19 +8518,19 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>180</v>
+        <v>365</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
@@ -8624,7 +8553,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8632,10 +8561,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8647,18 +8576,20 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>440</v>
+        <v>194</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8682,13 +8613,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8706,13 +8637,13 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -8724,16 +8655,16 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>431</v>
+        <v>214</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>444</v>
+        <v>215</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -8741,7 +8672,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8752,7 +8683,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8764,19 +8695,19 @@
         <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>447</v>
+        <v>276</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>449</v>
+        <v>278</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8825,13 +8756,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -8843,24 +8774,24 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>450</v>
+        <v>281</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>451</v>
+        <v>282</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8883,16 +8814,20 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>147</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8916,13 +8851,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8940,7 +8875,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>149</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8949,10 +8884,10 @@
         <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>45</v>
+        <v>291</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
@@ -8961,10 +8896,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>150</v>
+        <v>292</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8975,11 +8910,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8998,18 +8933,20 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>152</v>
+        <v>295</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>153</v>
+        <v>296</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -9033,13 +8970,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>45</v>
+        <v>300</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -9057,7 +8994,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>155</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9069,34 +9006,34 @@
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>150</v>
+        <v>303</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>45</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9109,25 +9046,25 @@
         <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>116</v>
+        <v>354</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>117</v>
+        <v>355</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9176,7 +9113,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9188,7 +9125,7 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>45</v>
@@ -9197,615 +9134,20 @@
         <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>98</v>
+        <v>358</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="65" hidden="true">
-      <c r="A65" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B65" s="2"/>
-      <c r="C65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F65" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P65" s="2"/>
-      <c r="Q65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="66" hidden="true">
-      <c r="A66" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F66" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B67" s="2"/>
-      <c r="C67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P67" s="2"/>
-      <c r="Q67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B68" s="2"/>
-      <c r="C68" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P68" s="2"/>
-      <c r="Q68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO69" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO69">
+  <autoFilter ref="A1:AO64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9815,7 +9157,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI68">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$69</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2570" uniqueCount="472">
   <si>
     <t>Path</t>
   </si>
@@ -699,6 +699,77 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>snomedImagingProcedure</t>
+  </si>
+  <si>
+    <t>Imaging Procedure (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/imaging-procedure-1</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1574,7 +1645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1584,7 +1655,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="43.6015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -4323,7 +4394,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>218</v>
       </c>
@@ -4333,35 +4404,31 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>219</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>45</v>
       </c>
@@ -4409,7 +4476,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4421,22 +4488,22 @@
         <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>45</v>
@@ -4444,11 +4511,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4464,19 +4531,19 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>229</v>
+        <v>100</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>116</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4514,19 +4581,19 @@
         <v>45</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>155</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4538,7 +4605,7 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>45</v>
@@ -4547,13 +4614,13 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4561,18 +4628,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4584,19 +4651,19 @@
         <v>56</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4633,25 +4700,23 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4660,41 +4725,43 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>220</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="C27" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4703,19 +4770,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4740,13 +4807,11 @@
         <v>45</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>45</v>
@@ -4764,13 +4829,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4779,19 +4844,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4799,7 +4864,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4822,18 +4887,20 @@
         <v>56</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>257</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4881,7 +4948,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4902,13 +4969,13 @@
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -4916,7 +4983,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4924,10 +4991,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>56</v>
@@ -4939,17 +5006,19 @@
         <v>56</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4998,13 +5067,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -5013,27 +5082,27 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5044,10 +5113,10 @@
         <v>43</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5056,20 +5125,18 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5117,16 +5184,16 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5135,28 +5202,28 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5172,22 +5239,22 @@
         <v>45</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -5212,13 +5279,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5236,7 +5303,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5245,68 +5312,68 @@
         <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5331,13 +5398,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5355,13 +5422,13 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>45</v>
@@ -5370,27 +5437,27 @@
         <v>67</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5401,7 +5468,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5410,23 +5477,21 @@
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>280</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>282</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5474,13 +5539,13 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
@@ -5495,13 +5560,13 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5509,7 +5574,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5520,7 +5585,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>56</v>
@@ -5529,21 +5594,21 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>194</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5567,13 +5632,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5591,13 +5656,13 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
@@ -5606,27 +5671,27 @@
         <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>292</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5646,22 +5711,22 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>194</v>
+        <v>297</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5686,13 +5751,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5710,7 +5775,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5719,7 +5784,7 @@
         <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>67</v>
@@ -5728,24 +5793,24 @@
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>303</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5768,18 +5833,20 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>194</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5803,13 +5870,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5827,7 +5894,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>332</v>
+        <v>307</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5836,7 +5903,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5845,35 +5912,35 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5885,18 +5952,20 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>342</v>
+        <v>194</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5920,13 +5989,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5944,13 +6013,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -5962,24 +6031,24 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>349</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6002,19 +6071,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6063,7 +6132,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6075,7 +6144,7 @@
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>356</v>
+        <v>67</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>45</v>
@@ -6084,10 +6153,10 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6096,9 +6165,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6112,7 +6181,7 @@
         <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>45</v>
@@ -6121,15 +6190,17 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6154,13 +6225,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>340</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6178,7 +6249,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>149</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6190,44 +6261,44 @@
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6236,18 +6307,20 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>152</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>153</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6271,13 +6344,13 @@
         <v>45</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>351</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>45</v>
@@ -6295,19 +6368,19 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>155</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6316,10 +6389,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>150</v>
+        <v>354</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6330,43 +6403,41 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>100</v>
+        <v>356</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6414,42 +6485,42 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>98</v>
+        <v>362</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6472,15 +6543,17 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6529,7 +6602,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6538,7 +6611,7 @@
         <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6547,19 +6620,19 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>369</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO42" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
@@ -6575,7 +6648,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6587,16 +6660,20 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
       </c>
@@ -6650,13 +6727,13 @@
         <v>43</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>379</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6665,10 +6742,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6679,7 +6756,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6702,20 +6779,16 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>147</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6739,13 +6812,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6763,7 +6836,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>377</v>
+        <v>149</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6775,19 +6848,19 @@
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>303</v>
+        <v>150</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6798,11 +6871,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
@@ -6821,20 +6894,18 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>387</v>
+        <v>152</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>388</v>
+        <v>153</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6858,13 +6929,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6882,7 +6953,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>386</v>
+        <v>155</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6894,19 +6965,19 @@
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>303</v>
+        <v>150</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6917,40 +6988,42 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>394</v>
+        <v>100</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="N46" t="s" s="2">
-        <v>397</v>
+        <v>117</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6999,19 +7072,19 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
@@ -7023,7 +7096,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>398</v>
+        <v>98</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7034,7 +7107,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7057,13 +7130,13 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>57</v>
+        <v>390</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7114,7 +7187,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7123,7 +7196,7 @@
         <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>67</v>
@@ -7135,10 +7208,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7147,9 +7220,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7160,29 +7233,27 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7231,16 +7302,16 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>67</v>
@@ -7252,10 +7323,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7266,7 +7337,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7289,16 +7360,20 @@
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>147</v>
+        <v>401</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7322,13 +7397,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>405</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7346,7 +7421,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>149</v>
+        <v>400</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7358,19 +7433,19 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7381,11 +7456,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7404,18 +7479,20 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>152</v>
+        <v>410</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>153</v>
+        <v>411</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7439,31 +7516,31 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>415</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>155</v>
+        <v>409</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7475,19 +7552,19 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>150</v>
+        <v>326</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7498,7 +7575,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7506,7 +7583,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>55</v>
@@ -7518,21 +7595,21 @@
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>57</v>
+        <v>417</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>157</v>
+        <v>418</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7580,7 +7657,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>160</v>
+        <v>416</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7589,7 +7666,7 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>67</v>
@@ -7604,7 +7681,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>98</v>
+        <v>421</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7615,7 +7692,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7635,20 +7712,18 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>423</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7673,13 +7748,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7697,7 +7772,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>169</v>
+        <v>422</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7718,10 +7793,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>45</v>
+        <v>394</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>98</v>
+        <v>425</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7730,9 +7805,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7743,10 +7818,10 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>45</v>
@@ -7755,16 +7830,16 @@
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>120</v>
+        <v>427</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>428</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>172</v>
+        <v>429</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>173</v>
+        <v>430</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7814,13 +7889,13 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>174</v>
+        <v>426</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
@@ -7835,10 +7910,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>175</v>
+        <v>432</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7849,7 +7924,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>433</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7869,20 +7944,18 @@
         <v>45</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7931,7 +8004,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
@@ -7943,7 +8016,7 @@
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
@@ -7955,7 +8028,7 @@
         <v>45</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -7966,11 +8039,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>434</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7986,19 +8059,19 @@
         <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>417</v>
+        <v>100</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>152</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>153</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>116</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8036,19 +8109,19 @@
         <v>45</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>155</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8060,7 +8133,7 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
@@ -8069,10 +8142,10 @@
         <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>421</v>
+        <v>150</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8083,7 +8156,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8091,10 +8164,10 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8106,20 +8179,18 @@
         <v>56</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>351</v>
+        <v>57</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>423</v>
+        <v>157</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
+        <v>158</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8167,16 +8238,16 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>160</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>67</v>
@@ -8188,10 +8259,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>428</v>
+        <v>98</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8202,7 +8273,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8222,18 +8293,20 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8258,13 +8331,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>166</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>168</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8282,7 +8355,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8294,7 +8367,7 @@
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
@@ -8306,7 +8379,7 @@
         <v>45</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8317,18 +8390,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8337,19 +8410,19 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8399,19 +8472,19 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8423,7 +8496,7 @@
         <v>45</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8434,43 +8507,41 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>363</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8518,19 +8589,19 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>365</v>
+        <v>180</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>45</v>
@@ -8553,7 +8624,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8561,10 +8632,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8576,20 +8647,18 @@
         <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>194</v>
+        <v>440</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>45</v>
       </c>
@@ -8613,13 +8682,13 @@
         <v>45</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>45</v>
@@ -8637,13 +8706,13 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>45</v>
@@ -8655,16 +8724,16 @@
         <v>45</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>436</v>
+        <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>214</v>
+        <v>431</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>215</v>
+        <v>444</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>45</v>
@@ -8672,7 +8741,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8683,7 +8752,7 @@
         <v>43</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>45</v>
@@ -8695,19 +8764,19 @@
         <v>56</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>274</v>
+        <v>374</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>278</v>
+        <v>449</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>45</v>
@@ -8756,13 +8825,13 @@
         <v>45</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>45</v>
@@ -8774,24 +8843,24 @@
         <v>45</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>440</v>
+        <v>45</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>281</v>
+        <v>450</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>282</v>
+        <v>451</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>283</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8814,20 +8883,16 @@
         <v>45</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>442</v>
+        <v>147</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>45</v>
       </c>
@@ -8851,13 +8916,13 @@
         <v>45</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>45</v>
@@ -8875,7 +8940,7 @@
         <v>45</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>43</v>
@@ -8884,10 +8949,10 @@
         <v>55</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>45</v>
@@ -8896,10 +8961,10 @@
         <v>45</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>292</v>
+        <v>150</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>45</v>
@@ -8910,11 +8975,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8933,20 +8998,18 @@
         <v>45</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>296</v>
+        <v>153</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>45</v>
       </c>
@@ -8970,13 +9033,13 @@
         <v>45</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>45</v>
@@ -8994,7 +9057,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>155</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9006,34 +9069,34 @@
         <v>45</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>303</v>
+        <v>150</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9046,25 +9109,25 @@
         <v>45</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>447</v>
+        <v>386</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>448</v>
+        <v>387</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>354</v>
+        <v>116</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>355</v>
+        <v>117</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>45</v>
@@ -9113,7 +9176,7 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>446</v>
+        <v>388</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>43</v>
@@ -9125,29 +9188,624 @@
         <v>45</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI65" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO64" t="s" s="2">
+      <c r="AJ65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO64">
+  <autoFilter ref="A1:AO69">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9157,7 +9815,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI68">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$58</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2384" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="444">
   <si>
     <t>Path</t>
   </si>
@@ -456,7 +456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/4.0/StructureDefinition/imagingstudy-diag-1)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -476,116 +476,6 @@
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.partOf.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.partOf.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Observation.partOf.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>Observation.partOf.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>Observation.partOf.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>Observation.partOf.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>Observation.status</t>
@@ -674,13 +564,10 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/evaluation-procedure-1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1013,6 +900,9 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
@@ -1146,7 +1036,28 @@
     <t>Observation.referenceRange.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Observation.referenceRange.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.referenceRange.modifierExtension</t>
@@ -1314,16 +1225,84 @@
     <t>Observation.hasMember.extension</t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>Observation.hasMember.reference</t>
   </si>
   <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
     <t>Observation.hasMember.type</t>
   </si>
   <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
     <t>Observation.hasMember.identifier</t>
   </si>
   <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
     <t>Observation.hasMember.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>
@@ -1385,6 +1364,12 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1574,7 +1559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO64"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3151,7 +3136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>137</v>
       </c>
@@ -3167,7 +3152,7 @@
         <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>45</v>
@@ -3268,7 +3253,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>146</v>
       </c>
@@ -3278,22 +3263,22 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>147</v>
@@ -3301,8 +3286,12 @@
       <c r="L15" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="M15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3326,13 +3315,11 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
@@ -3350,10 +3337,10 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>55</v>
@@ -3362,44 +3349,44 @@
         <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>45</v>
@@ -3408,18 +3395,20 @@
         <v>45</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>45</v>
       </c>
@@ -3443,31 +3432,31 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>43</v>
@@ -3479,7 +3468,7 @@
         <v>45</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>45</v>
@@ -3491,22 +3480,22 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>45</v>
+        <v>167</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3516,7 +3505,7 @@
         <v>55</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>45</v>
@@ -3525,18 +3514,20 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3560,13 +3551,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3584,42 +3573,42 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>45</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3627,13 +3616,13 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>45</v>
@@ -3642,18 +3631,20 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
       </c>
@@ -3677,13 +3668,13 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3701,7 +3692,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3716,19 +3707,19 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>45</v>
+        <v>188</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3736,7 +3727,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3747,7 +3738,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>45</v>
@@ -3759,16 +3750,16 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3818,13 +3809,13 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>45</v>
@@ -3839,13 +3830,13 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3853,11 +3844,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3876,18 +3867,20 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3935,7 +3928,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3950,19 +3943,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3970,11 +3963,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3987,25 +3980,25 @@
         <v>56</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>184</v>
+        <v>214</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4030,11 +4023,13 @@
         <v>45</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="X21" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y21" t="s" s="2">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>45</v>
@@ -4052,10 +4047,10 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>55</v>
@@ -4067,27 +4062,27 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>45</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4095,35 +4090,33 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="G22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
       </c>
@@ -4147,13 +4140,13 @@
         <v>45</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>199</v>
+        <v>45</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>200</v>
+        <v>45</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4171,13 +4164,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -4192,13 +4185,13 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4206,18 +4199,18 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>56</v>
@@ -4229,19 +4222,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4266,13 +4257,13 @@
         <v>45</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>45</v>
@@ -4290,13 +4281,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4305,27 +4296,27 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4333,7 +4324,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>55</v>
@@ -4348,19 +4339,19 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4409,7 +4400,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4418,33 +4409,33 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>45</v>
+        <v>244</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4455,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>45</v>
@@ -4464,21 +4455,23 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4502,13 +4495,13 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
@@ -4526,16 +4519,16 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4547,13 +4540,13 @@
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>214</v>
+        <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4561,18 +4554,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4581,22 +4574,22 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4621,13 +4614,13 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
@@ -4645,13 +4638,13 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4660,62 +4653,62 @@
         <v>67</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4764,13 +4757,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4779,27 +4772,27 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4813,25 +4806,25 @@
         <v>55</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>257</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4857,13 +4850,13 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
@@ -4881,7 +4874,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4899,24 +4892,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4927,7 +4920,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>56</v>
@@ -4936,20 +4929,22 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4974,13 +4969,13 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>294</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
@@ -4998,13 +4993,13 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
@@ -5013,27 +5008,27 @@
         <v>67</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5047,29 +5042,27 @@
         <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -5117,7 +5110,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>273</v>
+        <v>297</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5126,7 +5119,7 @@
         <v>55</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>67</v>
@@ -5135,24 +5128,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5175,20 +5168,18 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>194</v>
+        <v>307</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5212,13 +5203,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>289</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>290</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -5236,7 +5227,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5245,7 +5236,7 @@
         <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>291</v>
+        <v>45</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>67</v>
@@ -5254,28 +5245,28 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>45</v>
+        <v>311</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>98</v>
+        <v>312</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>294</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5294,19 +5285,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5331,13 +5322,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>299</v>
+        <v>45</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5355,7 +5346,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5367,30 +5358,30 @@
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>67</v>
+        <v>321</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5401,7 +5392,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5413,20 +5404,16 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5474,19 +5461,19 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>45</v>
@@ -5495,10 +5482,10 @@
         <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>311</v>
+        <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>312</v>
+        <v>328</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5507,23 +5494,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>45</v>
@@ -5532,16 +5519,16 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>316</v>
+        <v>116</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5567,13 +5554,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>318</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5591,77 +5578,77 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>319</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>322</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>326</v>
+        <v>116</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>327</v>
+        <v>117</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5686,13 +5673,13 @@
         <v>45</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>329</v>
+        <v>45</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>45</v>
@@ -5710,19 +5697,19 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5731,10 +5718,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>331</v>
+        <v>98</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5745,7 +5732,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5768,17 +5755,15 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5827,7 +5812,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5836,7 +5821,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5845,24 +5830,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>337</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>340</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5885,17 +5870,15 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5944,7 +5927,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5953,7 +5936,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>342</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5962,10 +5945,10 @@
         <v>45</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>348</v>
@@ -5974,12 +5957,12 @@
         <v>45</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>349</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5990,7 +5973,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6002,19 +5985,19 @@
         <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6039,13 +6022,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6063,31 +6046,31 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>357</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>358</v>
+        <v>267</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6098,7 +6081,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6109,7 +6092,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6121,16 +6104,20 @@
         <v>45</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>147</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6154,13 +6141,13 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>363</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
@@ -6178,31 +6165,31 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>149</v>
+        <v>358</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6213,18 +6200,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6236,18 +6223,18 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>152</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6295,19 +6282,19 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>155</v>
+        <v>365</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6319,7 +6306,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6330,43 +6317,39 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6414,19 +6397,19 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
@@ -6435,10 +6418,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>343</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>98</v>
+        <v>374</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6447,9 +6430,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6460,27 +6443,29 @@
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6529,16 +6514,16 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>67</v>
@@ -6550,10 +6535,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6564,7 +6549,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6587,13 +6572,13 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>367</v>
+        <v>57</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>374</v>
+        <v>325</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>375</v>
+        <v>326</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6644,7 +6629,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6653,10 +6638,10 @@
         <v>55</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6665,10 +6650,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6679,18 +6664,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6702,20 +6687,18 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>194</v>
+        <v>100</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6739,55 +6722,55 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>382</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>383</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>377</v>
+        <v>332</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6798,7 +6781,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6806,10 +6789,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6818,23 +6801,21 @@
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>194</v>
+        <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>390</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6858,13 +6839,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>391</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>392</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6882,16 +6863,16 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>390</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -6900,13 +6881,13 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>303</v>
+        <v>98</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6917,7 +6898,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6937,21 +6918,21 @@
         <v>45</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="K46" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -6975,13 +6956,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>395</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>396</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -6999,7 +6980,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7023,7 +7004,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>398</v>
+        <v>98</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -7034,7 +7015,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7054,18 +7035,20 @@
         <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
@@ -7114,7 +7097,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7135,10 +7118,10 @@
         <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>371</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7147,9 +7130,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7160,10 +7143,10 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>45</v>
@@ -7172,7 +7155,7 @@
         <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>404</v>
+        <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>405</v>
@@ -7231,13 +7214,13 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
@@ -7252,10 +7235,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>408</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>409</v>
+        <v>98</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7266,7 +7249,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7277,7 +7260,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>45</v>
@@ -7286,18 +7269,20 @@
         <v>45</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>57</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>147</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7346,19 +7331,19 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>149</v>
+        <v>409</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7367,10 +7352,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>380</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>150</v>
+        <v>414</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7381,18 +7366,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7401,21 +7386,23 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>316</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>152</v>
+        <v>416</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>153</v>
+        <v>417</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7451,19 +7438,19 @@
         <v>45</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>155</v>
+        <v>415</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7475,7 +7462,7 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7484,10 +7471,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>150</v>
+        <v>421</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7498,7 +7485,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7506,7 +7493,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>55</v>
@@ -7518,20 +7505,18 @@
         <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>57</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>157</v>
+        <v>325</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7580,7 +7565,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>160</v>
+        <v>327</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7589,10 +7574,10 @@
         <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7604,7 +7589,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7615,18 +7600,18 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7635,19 +7620,19 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>163</v>
+        <v>330</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>164</v>
+        <v>331</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7673,13 +7658,13 @@
         <v>45</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>166</v>
+        <v>45</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>167</v>
+        <v>45</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>45</v>
@@ -7697,19 +7682,19 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>169</v>
+        <v>332</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>45</v>
@@ -7721,7 +7706,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>98</v>
+        <v>328</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7732,41 +7717,43 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>45</v>
+        <v>334</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>171</v>
+        <v>335</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>172</v>
+        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7814,19 +7801,19 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>174</v>
+        <v>337</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7838,7 +7825,7 @@
         <v>45</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7849,7 +7836,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7857,7 +7844,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>55</v>
@@ -7872,18 +7859,20 @@
         <v>56</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>177</v>
+        <v>426</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>178</v>
+        <v>427</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7907,13 +7896,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>430</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -7931,10 +7920,10 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>180</v>
+        <v>425</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>55</v>
@@ -7949,16 +7938,16 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
@@ -7966,7 +7955,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7977,7 +7966,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -7989,18 +7978,20 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>417</v>
+        <v>238</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>240</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
       </c>
@@ -8048,13 +8039,13 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>45</v>
@@ -8066,24 +8057,24 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>408</v>
+        <v>245</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>421</v>
+        <v>246</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8094,7 +8085,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8103,22 +8094,22 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>351</v>
+        <v>159</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>423</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>426</v>
+        <v>252</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8143,13 +8134,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8167,16 +8158,16 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>67</v>
@@ -8188,10 +8179,10 @@
         <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>427</v>
+        <v>98</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>428</v>
+        <v>256</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8202,18 +8193,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>45</v>
+        <v>258</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8225,16 +8216,20 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8258,13 +8253,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>263</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8282,46 +8277,46 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>149</v>
+        <v>440</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>45</v>
+        <v>265</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>150</v>
+        <v>267</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8340,18 +8335,20 @@
         <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>152</v>
+        <v>442</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>153</v>
+        <v>443</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8399,7 +8396,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>155</v>
+        <v>441</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8411,7 +8408,7 @@
         <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>45</v>
@@ -8420,734 +8417,20 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>45</v>
+        <v>322</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>150</v>
+        <v>323</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" hidden="true">
-      <c r="A59" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="I59" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K59" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P59" s="2"/>
-      <c r="Q59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="60" hidden="true">
-      <c r="A60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D60" s="2"/>
-      <c r="E60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="F60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J60" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K60" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P60" s="2"/>
-      <c r="Q60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="61" hidden="true">
-      <c r="A61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D61" s="2"/>
-      <c r="E61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F61" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="J61" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="K61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P61" s="2"/>
-      <c r="Q61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="62" hidden="true">
-      <c r="A62" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F62" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="G62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J62" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P62" s="2"/>
-      <c r="Q62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W62" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Y62" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="Z62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" hidden="true">
-      <c r="A63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J63" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P63" s="2"/>
-      <c r="Q63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W63" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="X63" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="Y63" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="64" hidden="true">
-      <c r="A64" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="B64" s="2"/>
-      <c r="C64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D64" s="2"/>
-      <c r="E64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K64" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P64" s="2"/>
-      <c r="Q64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO64" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO64">
+  <autoFilter ref="A1:AO58">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9157,7 +8440,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI63">
+  <conditionalFormatting sqref="A2:AI57">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
+++ b/output/DiagnosticReport/observation-otherdiag-simple-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2162" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2161" uniqueCount="443">
   <si>
     <t>Path</t>
   </si>
@@ -533,10 +533,7 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -3434,11 +3431,9 @@
       <c r="W16" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="X16" s="2"/>
+      <c r="Y16" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3480,10 +3475,10 @@
         <v>45</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3491,11 +3486,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3517,16 +3512,16 @@
         <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>45</v>
@@ -3551,11 +3546,11 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
@@ -3573,7 +3568,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>55</v>
@@ -3588,27 +3583,27 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3631,19 +3626,19 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>45</v>
@@ -3692,7 +3687,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3707,19 +3702,19 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AK18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3727,7 +3722,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3750,16 +3745,16 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3809,7 +3804,7 @@
         <v>45</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>43</v>
@@ -3830,13 +3825,13 @@
         <v>45</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>45</v>
@@ -3844,11 +3839,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3867,19 +3862,19 @@
         <v>56</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>45</v>
@@ -3928,7 +3923,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>43</v>
@@ -3943,19 +3938,19 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="AK20" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>45</v>
@@ -3963,11 +3958,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3986,19 +3981,19 @@
         <v>56</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>45</v>
@@ -4047,7 +4042,7 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>43</v>
@@ -4062,19 +4057,19 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AK21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>45</v>
@@ -4082,7 +4077,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4105,16 +4100,16 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4164,7 +4159,7 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
@@ -4185,13 +4180,13 @@
         <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4199,7 +4194,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4222,17 +4217,17 @@
         <v>56</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4281,7 +4276,7 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4296,19 +4291,19 @@
         <v>67</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>45</v>
@@ -4316,7 +4311,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4339,19 +4334,19 @@
         <v>56</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4400,7 +4395,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4409,7 +4404,7 @@
         <v>55</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>67</v>
@@ -4418,24 +4413,24 @@
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4461,16 +4456,16 @@
         <v>159</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>45</v>
@@ -4495,14 +4490,14 @@
         <v>45</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4519,7 +4514,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4528,7 +4523,7 @@
         <v>55</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>67</v>
@@ -4543,7 +4538,7 @@
         <v>98</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>45</v>
@@ -4554,11 +4549,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4580,16 +4575,16 @@
         <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4614,14 +4609,14 @@
         <v>45</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>45</v>
       </c>
@@ -4638,7 +4633,7 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4656,24 +4651,24 @@
         <v>45</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4696,19 +4691,19 @@
         <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4757,7 +4752,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4778,10 +4773,10 @@
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4792,7 +4787,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4818,13 +4813,13 @@
         <v>159</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4850,14 +4845,14 @@
         <v>45</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>283</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>45</v>
       </c>
@@ -4874,7 +4869,7 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -4892,24 +4887,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>287</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4935,16 +4930,16 @@
         <v>159</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>45</v>
@@ -4969,14 +4964,14 @@
         <v>45</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>294</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4993,7 +4988,7 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
@@ -5014,10 +5009,10 @@
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
@@ -5028,7 +5023,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5051,16 +5046,16 @@
         <v>45</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -5110,7 +5105,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5128,24 +5123,24 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>305</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5168,16 +5163,16 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5227,7 +5222,7 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
@@ -5245,24 +5240,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5285,19 +5280,19 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
@@ -5346,7 +5341,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5358,19 +5353,19 @@
         <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AJ32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
@@ -5381,7 +5376,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5407,10 +5402,10 @@
         <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5461,7 +5456,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5485,7 +5480,7 @@
         <v>45</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
@@ -5496,7 +5491,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5522,10 +5517,10 @@
         <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>116</v>
@@ -5578,7 +5573,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5602,7 +5597,7 @@
         <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5613,11 +5608,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5639,10 +5634,10 @@
         <v>100</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>116</v>
@@ -5697,7 +5692,7 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5732,7 +5727,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5755,13 +5750,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5812,7 +5807,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5821,7 +5816,7 @@
         <v>55</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>67</v>
@@ -5833,10 +5828,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5847,7 +5842,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5870,13 +5865,13 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5927,7 +5922,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -5936,7 +5931,7 @@
         <v>55</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>67</v>
@@ -5948,10 +5943,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5962,7 +5957,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5988,16 +5983,16 @@
         <v>159</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
@@ -6025,11 +6020,11 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>355</v>
-      </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6046,7 +6041,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6064,13 +6059,13 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL38" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -6081,7 +6076,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6107,16 +6102,16 @@
         <v>159</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6141,14 +6136,14 @@
         <v>45</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y39" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="Z39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6165,7 +6160,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6183,13 +6178,13 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>357</v>
-      </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -6200,7 +6195,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6223,17 +6218,17 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6282,7 +6277,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6306,7 +6301,7 @@
         <v>45</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6317,7 +6312,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6343,10 +6338,10 @@
         <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6397,7 +6392,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6418,10 +6413,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6432,7 +6427,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6455,16 +6450,16 @@
         <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6514,7 +6509,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6535,10 +6530,10 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
@@ -6549,7 +6544,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6575,10 +6570,10 @@
         <v>57</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6629,7 +6624,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6653,7 +6648,7 @@
         <v>45</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6664,7 +6659,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6690,10 +6685,10 @@
         <v>100</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>116</v>
@@ -6737,7 +6732,7 @@
         <v>103</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>45</v>
@@ -6746,7 +6741,7 @@
         <v>104</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6770,7 +6765,7 @@
         <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
@@ -6781,7 +6776,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6807,13 +6802,13 @@
         <v>57</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6863,7 +6858,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6872,7 +6867,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -6898,7 +6893,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6924,13 +6919,13 @@
         <v>69</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -6956,31 +6951,31 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y46" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y46" t="s" s="2">
+      <c r="Z46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7015,7 +7010,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7041,13 +7036,13 @@
         <v>120</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7097,7 +7092,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -7121,7 +7116,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -7132,7 +7127,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7158,13 +7153,13 @@
         <v>57</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7214,7 +7209,7 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
@@ -7249,7 +7244,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7272,16 +7267,16 @@
         <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7331,7 +7326,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7352,10 +7347,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7366,7 +7361,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7389,19 +7384,19 @@
         <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
@@ -7450,7 +7445,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7471,10 +7466,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7485,7 +7480,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7511,10 +7506,10 @@
         <v>57</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7565,7 +7560,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7589,7 +7584,7 @@
         <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7600,7 +7595,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7626,10 +7621,10 @@
         <v>100</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>116</v>
@@ -7682,7 +7677,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7706,7 +7701,7 @@
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7717,11 +7712,11 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
@@ -7743,10 +7738,10 @@
         <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M53" t="s" s="2">
         <v>116</v>
@@ -7801,7 +7796,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7836,7 +7831,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7862,16 +7857,16 @@
         <v>159</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -7896,14 +7891,14 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Y54" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7920,7 +7915,7 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>55</v>
@@ -7938,16 +7933,16 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>45</v>
@@ -7955,7 +7950,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7978,19 +7973,19 @@
         <v>56</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8039,7 +8034,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8057,24 +8052,24 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AL55" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>247</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8100,16 +8095,16 @@
         <v>159</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="M56" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="N56" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8134,14 +8129,14 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>254</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8158,7 +8153,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8167,7 +8162,7 @@
         <v>55</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>67</v>
@@ -8182,7 +8177,7 @@
         <v>98</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
@@ -8193,11 +8188,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8219,16 +8214,16 @@
         <v>159</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
@@ -8253,14 +8248,14 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8277,7 +8272,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8295,24 +8290,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO57" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8338,16 +8333,16 @@
         <v>45</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>443</v>
-      </c>
       <c r="M58" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>45</v>
@@ -8396,7 +8391,7 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
@@ -8417,10 +8412,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
